--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H2">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I2">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J2">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N2">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O2">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P2">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q2">
-        <v>730.6501613512432</v>
+        <v>0.2148238571661111</v>
       </c>
       <c r="R2">
-        <v>730.6501613512432</v>
+        <v>1.933414714495</v>
       </c>
       <c r="S2">
-        <v>0.03020685686025865</v>
+        <v>7.21872305135299E-06</v>
       </c>
       <c r="T2">
-        <v>0.03020685686025865</v>
+        <v>7.218723051352988E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H3">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I3">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J3">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N3">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P3">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q3">
-        <v>4138.689177986436</v>
+        <v>0.6355232320457778</v>
       </c>
       <c r="R3">
-        <v>4138.689177986436</v>
+        <v>5.719709088412</v>
       </c>
       <c r="S3">
-        <v>0.1711034886481587</v>
+        <v>2.135547822927241E-05</v>
       </c>
       <c r="T3">
-        <v>0.1711034886481587</v>
+        <v>2.13554782292724E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H4">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I4">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J4">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N4">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P4">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q4">
-        <v>328.014494199099</v>
+        <v>0.05656405680322221</v>
       </c>
       <c r="R4">
-        <v>328.014494199099</v>
+        <v>0.5090765112289999</v>
       </c>
       <c r="S4">
-        <v>0.01356091793100849</v>
+        <v>1.900721205316266E-06</v>
       </c>
       <c r="T4">
-        <v>0.01356091793100849</v>
+        <v>1.900721205316266E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H5">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I5">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J5">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N5">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P5">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q5">
-        <v>477.1615189345321</v>
+        <v>0.07418835432177777</v>
       </c>
       <c r="R5">
-        <v>477.1615189345321</v>
+        <v>0.6676951888959999</v>
       </c>
       <c r="S5">
-        <v>0.01972701911818237</v>
+        <v>2.492950226987376E-06</v>
       </c>
       <c r="T5">
-        <v>0.01972701911818237</v>
+        <v>2.492950226987375E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H6">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I6">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J6">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N6">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P6">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q6">
-        <v>105.9470128192897</v>
+        <v>0.01626467411433333</v>
       </c>
       <c r="R6">
-        <v>105.9470128192897</v>
+        <v>0.146382067029</v>
       </c>
       <c r="S6">
-        <v>0.004380107499169892</v>
+        <v>5.46541615538984E-07</v>
       </c>
       <c r="T6">
-        <v>0.004380107499169892</v>
+        <v>5.46541615538984E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>27.915355603188</v>
+        <v>0.004257666666666667</v>
       </c>
       <c r="H7">
-        <v>27.915355603188</v>
+        <v>0.012773</v>
       </c>
       <c r="I7">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="J7">
-        <v>0.2713353529178966</v>
+        <v>3.799983494035526E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N7">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P7">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q7">
-        <v>782.6574027440867</v>
+        <v>0.1334827988278889</v>
       </c>
       <c r="R7">
-        <v>782.6574027440867</v>
+        <v>1.201345189451</v>
       </c>
       <c r="S7">
-        <v>0.03235696286111851</v>
+        <v>4.485420611887241E-06</v>
       </c>
       <c r="T7">
-        <v>0.03235696286111851</v>
+        <v>4.485420611887241E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H8">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I8">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J8">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N8">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O8">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P8">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q8">
-        <v>882.8505803380484</v>
+        <v>25.28096530512667</v>
       </c>
       <c r="R8">
-        <v>882.8505803380484</v>
+        <v>227.52868774614</v>
       </c>
       <c r="S8">
-        <v>0.03649919280103684</v>
+        <v>0.0008495159216299662</v>
       </c>
       <c r="T8">
-        <v>0.03649919280103684</v>
+        <v>0.0008495159216299658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H9">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I9">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J9">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N9">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P9">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q9">
-        <v>5000.812065608543</v>
+        <v>74.78983475996267</v>
       </c>
       <c r="R9">
-        <v>5000.812065608543</v>
+        <v>673.1085128396641</v>
       </c>
       <c r="S9">
-        <v>0.2067457481587738</v>
+        <v>0.002513161765693275</v>
       </c>
       <c r="T9">
-        <v>0.2067457481587738</v>
+        <v>0.002513161765693274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H10">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I10">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J10">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N10">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P10">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q10">
-        <v>396.3426026313477</v>
+        <v>6.656588222665333</v>
       </c>
       <c r="R10">
-        <v>396.3426026313477</v>
+        <v>59.909294003988</v>
       </c>
       <c r="S10">
-        <v>0.01638576831785862</v>
+        <v>0.000223681240436732</v>
       </c>
       <c r="T10">
-        <v>0.01638576831785862</v>
+        <v>0.000223681240436732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H11">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I11">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J11">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N11">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P11">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q11">
-        <v>576.5581754300389</v>
+        <v>8.730656065834667</v>
       </c>
       <c r="R11">
-        <v>576.5581754300389</v>
+        <v>78.575904592512</v>
       </c>
       <c r="S11">
-        <v>0.02383631893629971</v>
+        <v>0.0002933761130037922</v>
       </c>
       <c r="T11">
-        <v>0.02383631893629971</v>
+        <v>0.0002933761130037921</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H12">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I12">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J12">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N12">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P12">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q12">
-        <v>128.0166442167219</v>
+        <v>1.914064235732</v>
       </c>
       <c r="R12">
-        <v>128.0166442167219</v>
+        <v>17.226578121588</v>
       </c>
       <c r="S12">
-        <v>0.005292519802409535</v>
+        <v>6.431827359642349E-05</v>
       </c>
       <c r="T12">
-        <v>0.005292519802409535</v>
+        <v>6.431827359642347E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>33.7303530448</v>
+        <v>0.5010520000000001</v>
       </c>
       <c r="H13">
-        <v>33.7303530448</v>
+        <v>1.503156</v>
       </c>
       <c r="I13">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="J13">
-        <v>0.3278567315263162</v>
+        <v>0.004471907922148647</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N13">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P13">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q13">
-        <v>945.6913565044966</v>
+        <v>15.70856258944134</v>
       </c>
       <c r="R13">
-        <v>945.6913565044966</v>
+        <v>141.377063304972</v>
       </c>
       <c r="S13">
-        <v>0.03909718350993771</v>
+        <v>0.0005278546077884584</v>
       </c>
       <c r="T13">
-        <v>0.03909718350993771</v>
+        <v>0.0005278546077884584</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H14">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I14">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J14">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.1737723042941</v>
+        <v>50.45577166666666</v>
       </c>
       <c r="N14">
-        <v>26.1737723042941</v>
+        <v>151.367315</v>
       </c>
       <c r="O14">
-        <v>0.1113266536609365</v>
+        <v>0.18996722124408</v>
       </c>
       <c r="P14">
-        <v>0.1113266536609365</v>
+        <v>0.1899672212440799</v>
       </c>
       <c r="Q14">
-        <v>1079.293077818374</v>
+        <v>1731.849894104904</v>
       </c>
       <c r="R14">
-        <v>1079.293077818374</v>
+        <v>15586.64904694414</v>
       </c>
       <c r="S14">
-        <v>0.04462060399964099</v>
+        <v>0.05819532763715073</v>
       </c>
       <c r="T14">
-        <v>0.04462060399964099</v>
+        <v>0.05819532763715072</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H15">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I15">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J15">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>148.258515378317</v>
+        <v>149.2656146666667</v>
       </c>
       <c r="N15">
-        <v>148.258515378317</v>
+        <v>447.796844</v>
       </c>
       <c r="O15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876124</v>
       </c>
       <c r="P15">
-        <v>0.6305978443580588</v>
+        <v>0.5619887102876123</v>
       </c>
       <c r="Q15">
-        <v>6113.539443803993</v>
+        <v>5123.410670671607</v>
       </c>
       <c r="R15">
-        <v>6113.539443803993</v>
+        <v>46110.69603604446</v>
       </c>
       <c r="S15">
-        <v>0.2527486075511262</v>
+        <v>0.172161896717677</v>
       </c>
       <c r="T15">
-        <v>0.2527486075511262</v>
+        <v>0.1721618967176769</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H16">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I16">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J16">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7503247625346</v>
+        <v>13.28522433333333</v>
       </c>
       <c r="N16">
-        <v>11.7503247625346</v>
+        <v>39.855673</v>
       </c>
       <c r="O16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439596</v>
       </c>
       <c r="P16">
-        <v>0.04997844101469479</v>
+        <v>0.05001919635439595</v>
       </c>
       <c r="Q16">
-        <v>484.5325324481711</v>
+        <v>456.0036165306208</v>
       </c>
       <c r="R16">
-        <v>484.5325324481711</v>
+        <v>4104.032548775587</v>
       </c>
       <c r="S16">
-        <v>0.02003175476582768</v>
+        <v>0.01532308311364407</v>
       </c>
       <c r="T16">
-        <v>0.02003175476582768</v>
+        <v>0.01532308311364406</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H17">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I17">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J17">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.0931556709254</v>
+        <v>17.42465066666666</v>
       </c>
       <c r="N17">
-        <v>17.0931556709254</v>
+        <v>52.27395199999999</v>
       </c>
       <c r="O17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525379</v>
       </c>
       <c r="P17">
-        <v>0.07270346051865775</v>
+        <v>0.06560423830525378</v>
       </c>
       <c r="Q17">
-        <v>704.8477529039626</v>
+        <v>598.085777207879</v>
       </c>
       <c r="R17">
-        <v>704.8477529039626</v>
+        <v>5382.771994870911</v>
       </c>
       <c r="S17">
-        <v>0.02914012246417568</v>
+        <v>0.02009746796082556</v>
       </c>
       <c r="T17">
-        <v>0.02914012246417568</v>
+        <v>0.02009746796082556</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H18">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I18">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J18">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.79529511732927</v>
+        <v>3.820091</v>
       </c>
       <c r="N18">
-        <v>3.79529511732927</v>
+        <v>11.460273</v>
       </c>
       <c r="O18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="P18">
-        <v>0.016142782177357</v>
+        <v>0.01438273656706242</v>
       </c>
       <c r="Q18">
-        <v>156.5015428723403</v>
+        <v>131.1212568014653</v>
       </c>
       <c r="R18">
-        <v>156.5015428723403</v>
+        <v>1180.091311213188</v>
       </c>
       <c r="S18">
-        <v>0.006470154875777568</v>
+        <v>0.004406065748382947</v>
       </c>
       <c r="T18">
-        <v>0.006470154875777568</v>
+        <v>0.004406065748382947</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.2356715444225</v>
+        <v>34.32411866666666</v>
       </c>
       <c r="H19">
-        <v>41.2356715444225</v>
+        <v>102.972356</v>
       </c>
       <c r="I19">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="J19">
-        <v>0.4008079155557872</v>
+        <v>0.3063440484944415</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>28.0368057591466</v>
+        <v>31.35116233333333</v>
       </c>
       <c r="N19">
-        <v>28.0368057591466</v>
+        <v>94.053487</v>
       </c>
       <c r="O19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="P19">
-        <v>0.1192508182702952</v>
+        <v>0.1180378972415954</v>
       </c>
       <c r="Q19">
-        <v>1156.116513438942</v>
+        <v>1076.101016267264</v>
       </c>
       <c r="R19">
-        <v>1156.116513438942</v>
+        <v>9684.909146405371</v>
       </c>
       <c r="S19">
-        <v>0.04779667189923902</v>
+        <v>0.0361602073167612</v>
       </c>
       <c r="T19">
-        <v>0.04779667189923902</v>
+        <v>0.03616020731676119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>34.201962</v>
+      </c>
+      <c r="H20">
+        <v>102.605886</v>
+      </c>
+      <c r="I20">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J20">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N20">
+        <v>151.367315</v>
+      </c>
+      <c r="O20">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P20">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q20">
+        <v>1725.68638522401</v>
+      </c>
+      <c r="R20">
+        <v>15531.17746701609</v>
+      </c>
+      <c r="S20">
+        <v>0.05798821533490152</v>
+      </c>
+      <c r="T20">
+        <v>0.05798821533490151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>34.201962</v>
+      </c>
+      <c r="H21">
+        <v>102.605886</v>
+      </c>
+      <c r="I21">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J21">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N21">
+        <v>447.796844</v>
+      </c>
+      <c r="O21">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P21">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q21">
+        <v>5105.176880735976</v>
+      </c>
+      <c r="R21">
+        <v>45946.59192662378</v>
+      </c>
+      <c r="S21">
+        <v>0.171549186930886</v>
+      </c>
+      <c r="T21">
+        <v>0.1715491869308859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>34.201962</v>
+      </c>
+      <c r="H22">
+        <v>102.605886</v>
+      </c>
+      <c r="I22">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J22">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N22">
+        <v>39.855673</v>
+      </c>
+      <c r="O22">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P22">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q22">
+        <v>454.380737810142</v>
+      </c>
+      <c r="R22">
+        <v>4089.426640291278</v>
+      </c>
+      <c r="S22">
+        <v>0.01526854954282185</v>
+      </c>
+      <c r="T22">
+        <v>0.01526854954282184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>34.201962</v>
+      </c>
+      <c r="H23">
+        <v>102.605886</v>
+      </c>
+      <c r="I23">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J23">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N23">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O23">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P23">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q23">
+        <v>595.957239964608</v>
+      </c>
+      <c r="R23">
+        <v>5363.615159681472</v>
+      </c>
+      <c r="S23">
+        <v>0.02002594275377287</v>
+      </c>
+      <c r="T23">
+        <v>0.02002594275377287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>34.201962</v>
+      </c>
+      <c r="H24">
+        <v>102.605886</v>
+      </c>
+      <c r="I24">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J24">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.820091</v>
+      </c>
+      <c r="N24">
+        <v>11.460273</v>
+      </c>
+      <c r="O24">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P24">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q24">
+        <v>130.654607218542</v>
+      </c>
+      <c r="R24">
+        <v>1175.891464966878</v>
+      </c>
+      <c r="S24">
+        <v>0.004390384929010321</v>
+      </c>
+      <c r="T24">
+        <v>0.00439038492901032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34.201962</v>
+      </c>
+      <c r="H25">
+        <v>102.605886</v>
+      </c>
+      <c r="I25">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="J25">
+        <v>0.3052537956555946</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N25">
+        <v>94.053487</v>
+      </c>
+      <c r="O25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P25">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q25">
+        <v>1072.271262780498</v>
+      </c>
+      <c r="R25">
+        <v>9650.441365024482</v>
+      </c>
+      <c r="S25">
+        <v>0.03603151616420203</v>
+      </c>
+      <c r="T25">
+        <v>0.03603151616420203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.012956</v>
+      </c>
+      <c r="H26">
+        <v>129.038868</v>
+      </c>
+      <c r="I26">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J26">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>50.45577166666666</v>
+      </c>
+      <c r="N26">
+        <v>151.367315</v>
+      </c>
+      <c r="O26">
+        <v>0.18996722124408</v>
+      </c>
+      <c r="P26">
+        <v>0.1899672212440799</v>
+      </c>
+      <c r="Q26">
+        <v>2170.25188664438</v>
+      </c>
+      <c r="R26">
+        <v>19532.26697979942</v>
+      </c>
+      <c r="S26">
+        <v>0.07292694362734642</v>
+      </c>
+      <c r="T26">
+        <v>0.07292694362734639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>43.012956</v>
+      </c>
+      <c r="H27">
+        <v>129.038868</v>
+      </c>
+      <c r="I27">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J27">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>149.2656146666667</v>
+      </c>
+      <c r="N27">
+        <v>447.796844</v>
+      </c>
+      <c r="O27">
+        <v>0.5619887102876124</v>
+      </c>
+      <c r="P27">
+        <v>0.5619887102876123</v>
+      </c>
+      <c r="Q27">
+        <v>6420.355315970288</v>
+      </c>
+      <c r="R27">
+        <v>57783.1978437326</v>
+      </c>
+      <c r="S27">
+        <v>0.2157431093951269</v>
+      </c>
+      <c r="T27">
+        <v>0.2157431093951269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>43.012956</v>
+      </c>
+      <c r="H28">
+        <v>129.038868</v>
+      </c>
+      <c r="I28">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J28">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>13.28522433333333</v>
+      </c>
+      <c r="N28">
+        <v>39.855673</v>
+      </c>
+      <c r="O28">
+        <v>0.05001919635439596</v>
+      </c>
+      <c r="P28">
+        <v>0.05001919635439595</v>
+      </c>
+      <c r="Q28">
+        <v>571.4367696997959</v>
+      </c>
+      <c r="R28">
+        <v>5142.930927298164</v>
+      </c>
+      <c r="S28">
+        <v>0.019201981736288</v>
+      </c>
+      <c r="T28">
+        <v>0.019201981736288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>43.012956</v>
+      </c>
+      <c r="H29">
+        <v>129.038868</v>
+      </c>
+      <c r="I29">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J29">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>17.42465066666666</v>
+      </c>
+      <c r="N29">
+        <v>52.27395199999999</v>
+      </c>
+      <c r="O29">
+        <v>0.06560423830525379</v>
+      </c>
+      <c r="P29">
+        <v>0.06560423830525378</v>
+      </c>
+      <c r="Q29">
+        <v>749.4857324407039</v>
+      </c>
+      <c r="R29">
+        <v>6745.371591966335</v>
+      </c>
+      <c r="S29">
+        <v>0.02518495852742458</v>
+      </c>
+      <c r="T29">
+        <v>0.02518495852742457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>43.012956</v>
+      </c>
+      <c r="H30">
+        <v>129.038868</v>
+      </c>
+      <c r="I30">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J30">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.820091</v>
+      </c>
+      <c r="N30">
+        <v>11.460273</v>
+      </c>
+      <c r="O30">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="P30">
+        <v>0.01438273656706242</v>
+      </c>
+      <c r="Q30">
+        <v>164.313406098996</v>
+      </c>
+      <c r="R30">
+        <v>1478.820654890964</v>
+      </c>
+      <c r="S30">
+        <v>0.005521421074457192</v>
+      </c>
+      <c r="T30">
+        <v>0.005521421074457192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>43.012956</v>
+      </c>
+      <c r="H31">
+        <v>129.038868</v>
+      </c>
+      <c r="I31">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="J31">
+        <v>0.3838922480928749</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>31.35116233333333</v>
+      </c>
+      <c r="N31">
+        <v>94.053487</v>
+      </c>
+      <c r="O31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="P31">
+        <v>0.1180378972415954</v>
+      </c>
+      <c r="Q31">
+        <v>1348.506165992524</v>
+      </c>
+      <c r="R31">
+        <v>12136.55549393272</v>
+      </c>
+      <c r="S31">
+        <v>0.04531383373223181</v>
+      </c>
+      <c r="T31">
+        <v>0.04531383373223181</v>
       </c>
     </row>
   </sheetData>
